--- a/UserID-template.xlsx
+++ b/UserID-template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="2180" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="1940" windowWidth="15340" windowHeight="17780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Email</t>
   </si>
@@ -102,32 +102,51 @@
     <t>januari</t>
   </si>
   <si>
-    <t>abc123@dinepost.se</t>
-  </si>
-  <si>
-    <t>EttSäkertLösenord1</t>
-  </si>
-  <si>
-    <t>Nisselina</t>
-  </si>
-  <si>
-    <t>Förnamn</t>
-  </si>
-  <si>
-    <t>Efternamn</t>
-  </si>
-  <si>
-    <t>Adressen</t>
+    <t>SakraltTuggLugg15</t>
+  </si>
+  <si>
+    <t>Tusse</t>
+  </si>
+  <si>
+    <t>Årsta</t>
+  </si>
+  <si>
+    <t>Skolan</t>
+  </si>
+  <si>
+    <t>Hjälmarsvägen 16</t>
+  </si>
+  <si>
+    <t>ara100017@arstaskolan.se</t>
+  </si>
+  <si>
+    <t>ara100019@arstaskolan.se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,13 +169,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -581,16 +608,16 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -614,29 +641,35 @@
         <v>1975</v>
       </c>
       <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
       </c>
       <c r="Q2">
-        <v>12345</v>
+        <v>12053</v>
       </c>
       <c r="R2">
         <v>8</v>
       </c>
       <c r="S2">
         <v>1234567898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
